--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3514346666666666</v>
+        <v>1.152264333333333</v>
       </c>
       <c r="H2">
-        <v>1.054304</v>
+        <v>3.456793</v>
       </c>
       <c r="I2">
-        <v>0.164942595720082</v>
+        <v>0.3930660006090215</v>
       </c>
       <c r="J2">
-        <v>0.1649425957200821</v>
+        <v>0.3930660006090216</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N2">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O2">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P2">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q2">
-        <v>2.790532647214222</v>
+        <v>18.15466163675189</v>
       </c>
       <c r="R2">
-        <v>25.114793824928</v>
+        <v>163.391954730767</v>
       </c>
       <c r="S2">
-        <v>0.03186111985110376</v>
+        <v>0.126589142591535</v>
       </c>
       <c r="T2">
-        <v>0.03186111985110376</v>
+        <v>0.126589142591535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3514346666666666</v>
+        <v>1.152264333333333</v>
       </c>
       <c r="H3">
-        <v>1.054304</v>
+        <v>3.456793</v>
       </c>
       <c r="I3">
-        <v>0.164942595720082</v>
+        <v>0.3930660006090215</v>
       </c>
       <c r="J3">
-        <v>0.1649425957200821</v>
+        <v>0.3930660006090216</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>80.861542</v>
       </c>
       <c r="O3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P3">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q3">
-        <v>9.472516352974221</v>
+        <v>31.05795692831177</v>
       </c>
       <c r="R3">
-        <v>85.25264717676799</v>
+        <v>279.521612354806</v>
       </c>
       <c r="S3">
-        <v>0.1081531796859437</v>
+        <v>0.216561465967549</v>
       </c>
       <c r="T3">
-        <v>0.1081531796859437</v>
+        <v>0.216561465967549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3514346666666666</v>
+        <v>1.152264333333333</v>
       </c>
       <c r="H4">
-        <v>1.054304</v>
+        <v>3.456793</v>
       </c>
       <c r="I4">
-        <v>0.164942595720082</v>
+        <v>0.3930660006090215</v>
       </c>
       <c r="J4">
-        <v>0.1649425957200821</v>
+        <v>0.3930660006090216</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>18.637829</v>
       </c>
       <c r="O4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P4">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q4">
-        <v>2.183326407335111</v>
+        <v>7.158568535821889</v>
       </c>
       <c r="R4">
-        <v>19.649937666016</v>
+        <v>64.42711682239701</v>
       </c>
       <c r="S4">
-        <v>0.0249282961830346</v>
+        <v>0.04991539204993763</v>
       </c>
       <c r="T4">
-        <v>0.02492829618303461</v>
+        <v>0.04991539204993762</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>4.187895</v>
       </c>
       <c r="I5">
-        <v>0.6551832032346963</v>
+        <v>0.4761983545501621</v>
       </c>
       <c r="J5">
-        <v>0.6551832032346963</v>
+        <v>0.476198354550162</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N5">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O5">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P5">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q5">
-        <v>11.08452374325167</v>
+        <v>21.99432152727834</v>
       </c>
       <c r="R5">
-        <v>99.760713689265</v>
+        <v>197.948893745505</v>
       </c>
       <c r="S5">
-        <v>0.1265583973112482</v>
+        <v>0.1533623903176662</v>
       </c>
       <c r="T5">
-        <v>0.1265583973112482</v>
+        <v>0.1533623903176662</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>4.187895</v>
       </c>
       <c r="I6">
-        <v>0.6551832032346963</v>
+        <v>0.4761983545501621</v>
       </c>
       <c r="J6">
-        <v>0.6551832032346963</v>
+        <v>0.476198354550162</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>80.861542</v>
       </c>
       <c r="O6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P6">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q6">
         <v>37.62662749267667</v>
@@ -818,10 +818,10 @@
         <v>338.63964743409</v>
       </c>
       <c r="S6">
-        <v>0.4296048961598034</v>
+        <v>0.2623636071116114</v>
       </c>
       <c r="T6">
-        <v>0.4296048961598034</v>
+        <v>0.2623636071116113</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>4.187895</v>
       </c>
       <c r="I7">
-        <v>0.6551832032346963</v>
+        <v>0.4761983545501621</v>
       </c>
       <c r="J7">
-        <v>0.6551832032346963</v>
+        <v>0.476198354550162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>18.637829</v>
       </c>
       <c r="O7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P7">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q7">
         <v>8.672585653328333</v>
@@ -880,10 +880,10 @@
         <v>78.05327087995501</v>
       </c>
       <c r="S7">
-        <v>0.09901990976364476</v>
+        <v>0.06047235712088446</v>
       </c>
       <c r="T7">
-        <v>0.09901990976364478</v>
+        <v>0.06047235712088444</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>1.149746</v>
       </c>
       <c r="I8">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="J8">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.940402333333334</v>
+        <v>15.75563966666667</v>
       </c>
       <c r="N8">
-        <v>23.821207</v>
+        <v>47.266919</v>
       </c>
       <c r="O8">
-        <v>0.1931648990487216</v>
+        <v>0.3220556913988901</v>
       </c>
       <c r="P8">
-        <v>0.1931648990487216</v>
+        <v>0.32205569139889</v>
       </c>
       <c r="Q8">
-        <v>3.043148607046889</v>
+        <v>6.038327894730444</v>
       </c>
       <c r="R8">
-        <v>27.388337463422</v>
+        <v>54.344951052574</v>
       </c>
       <c r="S8">
-        <v>0.03474538188636972</v>
+        <v>0.04210415848968884</v>
       </c>
       <c r="T8">
-        <v>0.03474538188636972</v>
+        <v>0.04210415848968883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>1.149746</v>
       </c>
       <c r="I9">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="J9">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>80.861542</v>
       </c>
       <c r="O9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378365</v>
       </c>
       <c r="P9">
-        <v>0.6557019380820612</v>
+        <v>0.5509544596378364</v>
       </c>
       <c r="Q9">
         <v>10.33002605203689</v>
@@ -1004,10 +1004,10 @@
         <v>92.970234468332</v>
       </c>
       <c r="S9">
-        <v>0.1179438622363142</v>
+        <v>0.07202938655867608</v>
       </c>
       <c r="T9">
-        <v>0.1179438622363142</v>
+        <v>0.07202938655867606</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>1.149746</v>
       </c>
       <c r="I10">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="J10">
-        <v>0.1798742010452218</v>
+        <v>0.1307356448408163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>18.637829</v>
       </c>
       <c r="O10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="P10">
-        <v>0.1511331628692172</v>
+        <v>0.1269898489632735</v>
       </c>
       <c r="Q10">
         <v>2.380974371270444</v>
@@ -1066,10 +1066,10 @@
         <v>21.428769341434</v>
       </c>
       <c r="S10">
-        <v>0.02718495692253781</v>
+        <v>0.01660209979245144</v>
       </c>
       <c r="T10">
-        <v>0.02718495692253782</v>
+        <v>0.01660209979245144</v>
       </c>
     </row>
   </sheetData>
